--- a/Requirment/RTM.xlsx
+++ b/Requirment/RTM.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca467a5afed32b93/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\customer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="388" documentId="11_F25DC773A252ABDACC104890F918537A5BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C82C1DE2-EB07-4868-94E3-FE05C9F4754E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B52193F-89AA-4744-8E6A-BEB2DD1047AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="125">
   <si>
     <t>Customer Requirment</t>
   </si>
@@ -60,9 +70,6 @@
     <t>SRS_UserSignIn_07</t>
   </si>
   <si>
-    <t>CustomerRequirmen _01</t>
-  </si>
-  <si>
     <t>SRS_UserSignUp_01   Email</t>
   </si>
   <si>
@@ -72,9 +79,6 @@
     <t>SRS_UserSignUp_03   Password</t>
   </si>
   <si>
-    <t>CustomerRequirmen _02</t>
-  </si>
-  <si>
     <t>SRS_UserSignUp_04   Password</t>
   </si>
   <si>
@@ -90,12 +94,6 @@
     <t>SRS_UserSignUp_06   Confirm Password</t>
   </si>
   <si>
-    <t>CustomerRequirmen _03</t>
-  </si>
-  <si>
-    <t>CustomerRequirmen _04</t>
-  </si>
-  <si>
     <t>SRS_UserSignUp_09</t>
   </si>
   <si>
@@ -111,18 +109,6 @@
     <t>SRS_UserSignUp_13</t>
   </si>
   <si>
-    <t>SRS_ForgetPassword _01</t>
-  </si>
-  <si>
-    <t>SRS_ForgetPassword _02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRS_ForgetPassword_03 </t>
-  </si>
-  <si>
-    <t>SRS_ForgetPassword_04</t>
-  </si>
-  <si>
     <t xml:space="preserve">SRS_Logout_01 </t>
   </si>
   <si>
@@ -232,13 +218,205 @@
   </si>
   <si>
     <t>SIQ_3</t>
+  </si>
+  <si>
+    <t>CRS_UserSignUp_01</t>
+  </si>
+  <si>
+    <t>CRS_UserSignIn_02</t>
+  </si>
+  <si>
+    <t>SIQ_03</t>
+  </si>
+  <si>
+    <t>CRS_Logout_13</t>
+  </si>
+  <si>
+    <t>CRS_AdminLogin_12</t>
+  </si>
+  <si>
+    <t>CRS_AdminEditMenu_16</t>
+  </si>
+  <si>
+    <t>CRS_AdminDeleteUser_15</t>
+  </si>
+  <si>
+    <t>CRS_AdminCreateUser_14</t>
+  </si>
+  <si>
+    <t>SRS_SelectItems_01</t>
+  </si>
+  <si>
+    <t>SRS_SelectItems_02</t>
+  </si>
+  <si>
+    <t>SRS_SelectItems_03</t>
+  </si>
+  <si>
+    <t>SRS_SelectItems_04</t>
+  </si>
+  <si>
+    <t>SRS_ViewMenu_01</t>
+  </si>
+  <si>
+    <t>SRS_ViewMenu_02</t>
+  </si>
+  <si>
+    <t>SRS_MakeOrder_01</t>
+  </si>
+  <si>
+    <t>SRS_MakeOrder_02</t>
+  </si>
+  <si>
+    <t>SRS_MakeOrder_03</t>
+  </si>
+  <si>
+    <t>SRS_MakeOrder_04</t>
+  </si>
+  <si>
+    <t>SRS_SearchRestaurant_01</t>
+  </si>
+  <si>
+    <t>SRS_SearchRestaurant_02</t>
+  </si>
+  <si>
+    <t>SRS_AddToCart_01</t>
+  </si>
+  <si>
+    <t>SRS_AddToCart_02</t>
+  </si>
+  <si>
+    <t>SRS_DeleteFromCart_01</t>
+  </si>
+  <si>
+    <t>SRS_DeleteFromCart_02</t>
+  </si>
+  <si>
+    <t>SRS_SelectPaymentType_01</t>
+  </si>
+  <si>
+    <t>SRS_SelectPaymentType_02</t>
+  </si>
+  <si>
+    <t>SRS_SelectPaymentType_03</t>
+  </si>
+  <si>
+    <t>SRS_SubmitOrder_01</t>
+  </si>
+  <si>
+    <t>SRS_SubmitOrder_02</t>
+  </si>
+  <si>
+    <t>SRS_SubmitOrder_03</t>
+  </si>
+  <si>
+    <t>SRS_UpdateMenuPrices_02</t>
+  </si>
+  <si>
+    <t>SRS_UpdateMenuPrices_01</t>
+  </si>
+  <si>
+    <t>SRS_AdminEditRestaurant_add_01</t>
+  </si>
+  <si>
+    <t>SRS_AdminEditRestaurant_add_02</t>
+  </si>
+  <si>
+    <t>SRS_AdminEditRestaurant_add_03</t>
+  </si>
+  <si>
+    <t>SRS_AdminEditRestaurant_add_04</t>
+  </si>
+  <si>
+    <t>SRS_AdminEditRestaurant_add_05</t>
+  </si>
+  <si>
+    <t>SRS_AdminEditRestaurant_delete_01</t>
+  </si>
+  <si>
+    <t>CRS_UserSelectItems_03</t>
+  </si>
+  <si>
+    <t>CRS_UserViewMenu_04</t>
+  </si>
+  <si>
+    <t>CRS_UserMakeOrder_05</t>
+  </si>
+  <si>
+    <t>CRS_UserSearchResturant_06</t>
+  </si>
+  <si>
+    <t>CRS_UserDeleteFromCart_08</t>
+  </si>
+  <si>
+    <t>CRS_UserAddToCart_07</t>
+  </si>
+  <si>
+    <t>CRS_SelectPayment_09</t>
+  </si>
+  <si>
+    <t>CRS_SubmitOrder_10</t>
+  </si>
+  <si>
+    <t>CRS_UpdateMenuPrices_16</t>
+  </si>
+  <si>
+    <t>CRS_AdminEditRestaurant_17</t>
+  </si>
+  <si>
+    <t>FC_09</t>
+  </si>
+  <si>
+    <t>FC_14</t>
+  </si>
+  <si>
+    <t>FC_11</t>
+  </si>
+  <si>
+    <t>FC_16</t>
+  </si>
+  <si>
+    <t>FC_01</t>
+  </si>
+  <si>
+    <t>FC_03</t>
+  </si>
+  <si>
+    <t>FC_06</t>
+  </si>
+  <si>
+    <t>FC_02</t>
+  </si>
+  <si>
+    <t>FC_07</t>
+  </si>
+  <si>
+    <t>FC_10</t>
+  </si>
+  <si>
+    <t>FC_05</t>
+  </si>
+  <si>
+    <t>FC_04</t>
+  </si>
+  <si>
+    <t>FC_15</t>
+  </si>
+  <si>
+    <t>FC_08</t>
+  </si>
+  <si>
+    <t>FC_12</t>
+  </si>
+  <si>
+    <t>FC_13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +456,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -293,7 +485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -368,17 +560,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -397,6 +725,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -404,6 +751,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -686,32 +1072,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B33"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D2" activeCellId="72" sqref="D52 D52 D51 D50 D48 D49 D47 D47 D42 D43 D44 D45 D46 D46 D41 D41 D40 D39 D38 D38 D37 D37 D36 D35 D34 D34 D33 D33 D32 D31 D30 D30 D29 D28 D27 D27 D26 D24 D24 D25 D23 D24 D22 D21 D20 D20 D19 D18 D17 D17 D16 D16 D15 D14 D13 D13 D12 D12 D11 D10 D10 D9 D8 D8 D7 D7 D6 D5 D4 D4 D3 D3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.9453125" customWidth="1"/>
-    <col min="3" max="3" width="42.05078125" customWidth="1"/>
-    <col min="4" max="4" width="28.83984375" customWidth="1"/>
-    <col min="5" max="5" width="26.62890625" customWidth="1"/>
-    <col min="6" max="6" width="27.15625" customWidth="1"/>
+    <col min="1" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="9" max="9" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" ht="46.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -721,660 +1109,1052 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="58.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:6" ht="58.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="57.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="51" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="52.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="52.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="54.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="59.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="67.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="70.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="17"/>
+      <c r="B11" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="58.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="61.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="62.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="57.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="17"/>
+      <c r="B15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="58.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="57.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="51" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="52.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="52.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="6" t="s">
+      <c r="D16" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="59.7" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="72.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="58.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="18"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="70.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="54.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="59.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="67.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="B22" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="62.7" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="70.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="11"/>
-      <c r="B11" s="10" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="73.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="17"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="60.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="17"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="70.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="17"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="69.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="17"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="62.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="17"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="53.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="17"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="47.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="58.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="61.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="62.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="57.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="58.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="59.7" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="72.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="58.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="70.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="62.7" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="73.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="60.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="70.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="12"/>
-      <c r="B26" s="10" t="s">
+      <c r="B30" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="62.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="52.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="57.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="57.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="54.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="59.7" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="53.7" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="17"/>
+      <c r="B37" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="62.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="63.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="25"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="59.7" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="69.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="62.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="53.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="47.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" ht="62.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" ht="52.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="57.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" ht="57.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="11"/>
-      <c r="B34" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" ht="54.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="9" t="s">
+      <c r="B40" s="17"/>
+      <c r="C40" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" ht="59.7" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="9" t="s">
+      <c r="D40" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="67.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" ht="53.7" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="9" t="s">
+      <c r="D41" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="62.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="9" t="s">
+      <c r="D42" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" ht="63.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="9" t="s">
+      <c r="D43" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" ht="59.7" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="9" t="s">
+      <c r="D44" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="58.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" ht="67.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A41" s="11"/>
-      <c r="B41" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="9" t="s">
+      <c r="D45" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="58.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="9" t="s">
+      <c r="D46" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A43" s="12"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A44" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="9" t="s">
+      <c r="D47" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="52.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" ht="58.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="9" t="s">
+      <c r="D48" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="58.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" ht="58.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="9" t="s">
+      <c r="D49" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="54.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="9" t="s">
+      <c r="D50" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="52.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" ht="52.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" ht="58.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" ht="54.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" ht="52.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="D51" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" s="10"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" ht="47.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+    <row r="52" spans="1:6" ht="47.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" s="10"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="65.099999999999994" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+    <row r="53" spans="1:6" ht="65.099999999999994" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="29"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" s="10"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" ht="64.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+    <row r="54" spans="1:6" ht="64.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="29"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="10"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" ht="52.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+    <row r="55" spans="1:6" ht="52.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="30"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="10"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A56" s="2"/>
+    <row r="56" spans="1:6" ht="67.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="26" t="s">
+        <v>100</v>
+      </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="C56" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E56" s="10"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A57" s="2"/>
+    <row r="57" spans="1:6" ht="76.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="27"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="C57" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" s="10"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A58" s="2"/>
+    <row r="58" spans="1:6" ht="67.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="26" t="s">
+        <v>101</v>
+      </c>
       <c r="B58" s="2"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="C58" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" s="10"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A59" s="2"/>
+    <row r="59" spans="1:6" ht="65.400000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="28"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="C59" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="10"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A60" s="2"/>
+    <row r="60" spans="1:6" ht="67.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="28"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="C60" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" s="10"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A61" s="2"/>
+    <row r="61" spans="1:6" ht="67.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="27"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="C61" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="10"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A62" s="2"/>
+    <row r="62" spans="1:6" ht="55.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="26" t="s">
+        <v>102</v>
+      </c>
       <c r="B62" s="2"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="C62" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" s="10"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A63" s="2"/>
+    <row r="63" spans="1:6" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="28"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="C63" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E63" s="10"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A64" s="2"/>
+    <row r="64" spans="1:6" ht="73.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="C64" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E64" s="10"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="65" spans="1:6" ht="73.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="27"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" ht="70.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E66" s="10"/>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" ht="77.400000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="27"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" ht="73.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" ht="63.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="28"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="10"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="28"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" ht="58.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" ht="67.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="28"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="28"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E73" s="10"/>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" ht="54.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="27"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" ht="67.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" ht="71.400000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="27"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E76" s="10"/>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" ht="67.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" ht="53.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="28"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E78" s="10"/>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="28"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E79" s="10"/>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" ht="66.599999999999994" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="28"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D80" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" ht="52.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="28"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="27"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A43"/>
-    <mergeCell ref="A44:A55"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="B41:B55"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B33"/>
+  <mergeCells count="23">
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
     <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A52:A55"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A9:A21"/>
     <mergeCell ref="B15:B21"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="B37:B51"/>
+    <mergeCell ref="A40:A51"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A38:A39"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Requirment/RTM.xlsx
+++ b/Requirment/RTM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\customer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merna Files\ITI_Sw testing and QA\QA\Project\Phases\Foodie-web\Requirment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B52193F-89AA-4744-8E6A-BEB2DD1047AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82FE3E5-C5E2-4078-B3F1-E42E56C648DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="131">
   <si>
     <t>Customer Requirment</t>
   </si>
@@ -410,13 +410,47 @@
   </si>
   <si>
     <t>FC_13</t>
+  </si>
+  <si>
+    <t>AdminController.cs</t>
+  </si>
+  <si>
+    <t>Login.cshtml
+CustomerController.cs
+site.css
+customer.css
+admin.css</t>
+  </si>
+  <si>
+    <t>Register.cshtnl
+CustomerController.cs
+site.css
+customer.css
+admin.css</t>
+  </si>
+  <si>
+    <t>CustomerController.cs
+site.css
+customer.css
+admin.css</t>
+  </si>
+  <si>
+    <t>EditMenue.cshtml
+site.css
+customer.css
+admin.css</t>
+  </si>
+  <si>
+    <t>site.css
+customer.css
+admin.css</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +504,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -698,10 +740,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -744,6 +787,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,6 +808,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,26 +835,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1074,16 +1136,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D2" activeCellId="72" sqref="D52 D52 D51 D50 D48 D49 D47 D47 D42 D43 D44 D45 D46 D46 D41 D41 D40 D39 D38 D38 D37 D37 D36 D35 D34 D34 D33 D33 D32 D31 D30 D30 D29 D28 D27 D27 D26 D24 D24 D25 D23 D24 D22 D21 D20 D20 D19 D18 D17 D17 D16 D16 D15 D14 D13 D13 D12 D12 D11 D10 D10 D9 D8 D8 D7 D7 D6 D5 D4 D4 D3 D3 D2"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="62" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="31" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" customWidth="1"/>
     <col min="6" max="6" width="20.88671875" customWidth="1"/>
     <col min="8" max="8" width="26.6640625" customWidth="1"/>
     <col min="9" max="9" width="27.109375" customWidth="1"/>
@@ -1110,1044 +1173,1094 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="58.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="35" t="s">
+        <v>126</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="57.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="51" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="52.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="52.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="54.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="59.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="67.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="35" t="s">
+        <v>127</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="70.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="58.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="61.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="62.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="57.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
-      <c r="B15" s="16" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="20" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="58.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="59.7" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="72.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="58.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="18"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="70.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="27" t="s">
         <v>63</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="36" t="s">
+        <v>128</v>
+      </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="62.7" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="22"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="35" t="s">
+        <v>126</v>
+      </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="73.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="17"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="10"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="60.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="17"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="70.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="17"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="10"/>
+      <c r="E26" s="32"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="69.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="17"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="10"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="62.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="17"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="10"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="53.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="17"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="47.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="20" t="s">
         <v>59</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E30" s="10"/>
+      <c r="E30" s="35" t="s">
+        <v>129</v>
+      </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="62.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="10"/>
+      <c r="E31" s="32"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="52.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="10"/>
+      <c r="E32" s="32"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="57.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="10"/>
+      <c r="E33" s="32"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="57.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="10"/>
+      <c r="E34" s="32"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="54.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="10"/>
+      <c r="E35" s="32"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="59.7" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="10"/>
+      <c r="E36" s="33"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="53.7" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="17"/>
-      <c r="B37" s="16" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="20" t="s">
         <v>60</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E37" s="10"/>
+      <c r="E37" s="37" t="s">
+        <v>129</v>
+      </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="62.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="19"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="10"/>
+      <c r="E38" s="37" t="s">
+        <v>130</v>
+      </c>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="63.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="25"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="10"/>
+      <c r="E39" s="37" t="s">
+        <v>130</v>
+      </c>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="59.7" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="17"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E40" s="10"/>
+      <c r="E40" s="37" t="s">
+        <v>130</v>
+      </c>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="67.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E41" s="10"/>
+      <c r="E41" s="37" t="s">
+        <v>130</v>
+      </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="10"/>
+      <c r="E42" s="37" t="s">
+        <v>130</v>
+      </c>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="10"/>
+      <c r="E43" s="37" t="s">
+        <v>130</v>
+      </c>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E44" s="10"/>
+      <c r="E44" s="37" t="s">
+        <v>130</v>
+      </c>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="58.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E45" s="10"/>
+      <c r="E45" s="37" t="s">
+        <v>130</v>
+      </c>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="58.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E46" s="10"/>
+      <c r="E46" s="37" t="s">
+        <v>130</v>
+      </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E47" s="10"/>
+      <c r="E47" s="37" t="s">
+        <v>130</v>
+      </c>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="52.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E48" s="10"/>
+      <c r="E48" s="37" t="s">
+        <v>130</v>
+      </c>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" ht="58.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="16" t="s">
         <v>116</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" ht="54.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E50" s="10"/>
+      <c r="E50" s="37" t="s">
+        <v>130</v>
+      </c>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" ht="52.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="10"/>
+      <c r="E51" s="37" t="s">
+        <v>130</v>
+      </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="47.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="17" t="s">
         <v>99</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E52" s="10"/>
+      <c r="E52" s="37" t="s">
+        <v>130</v>
+      </c>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" ht="65.099999999999994" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="29"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="2"/>
       <c r="C53" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E53" s="10"/>
+      <c r="E53" s="37" t="s">
+        <v>130</v>
+      </c>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" ht="64.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="29"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="2"/>
       <c r="C54" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E54" s="10"/>
+      <c r="E54" s="37" t="s">
+        <v>130</v>
+      </c>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" ht="52.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="30"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="2"/>
       <c r="C55" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E55" s="10"/>
+      <c r="E55" s="37" t="s">
+        <v>130</v>
+      </c>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" ht="67.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="17" t="s">
         <v>100</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E56" s="10"/>
+      <c r="E56" s="37" t="s">
+        <v>130</v>
+      </c>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" ht="76.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="27"/>
+      <c r="A57" s="19"/>
       <c r="B57" s="2"/>
       <c r="C57" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="16" t="s">
         <v>118</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" ht="67.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="17" t="s">
         <v>101</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="E58" s="10"/>
+      <c r="E58" s="37" t="s">
+        <v>130</v>
+      </c>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" ht="65.400000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="28"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="2"/>
       <c r="C59" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="16" t="s">
         <v>119</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" ht="67.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="28"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="2"/>
       <c r="C60" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="16" t="s">
         <v>119</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" ht="67.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="27"/>
+      <c r="A61" s="19"/>
       <c r="B61" s="2"/>
       <c r="C61" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="16" t="s">
         <v>119</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" ht="55.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="17" t="s">
         <v>102</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="16" t="s">
         <v>120</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="28"/>
+      <c r="A63" s="18"/>
       <c r="B63" s="2"/>
       <c r="C63" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="D63" s="16" t="s">
         <v>120</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" ht="73.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="18" t="s">
         <v>104</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="16" t="s">
         <v>117</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" ht="73.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="27"/>
+      <c r="A65" s="19"/>
       <c r="B65" s="2"/>
       <c r="C65" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D65" s="31" t="s">
+      <c r="D65" s="16" t="s">
         <v>117</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" ht="70.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D66" s="31" t="s">
+      <c r="D66" s="16" t="s">
         <v>114</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" ht="77.400000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="27"/>
+      <c r="A67" s="19"/>
       <c r="B67" s="2"/>
       <c r="C67" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="16" t="s">
         <v>114</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="73.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="26" t="s">
+      <c r="A68" s="17" t="s">
         <v>105</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D68" s="31" t="s">
+      <c r="D68" s="16" t="s">
         <v>121</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" ht="63.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="28"/>
+      <c r="A69" s="18"/>
       <c r="B69" s="2"/>
       <c r="C69" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="16" t="s">
         <v>121</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="28"/>
+      <c r="A70" s="18"/>
       <c r="B70" s="2"/>
       <c r="C70" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="16" t="s">
         <v>121</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" ht="58.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="18" t="s">
         <v>106</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D71" s="31" t="s">
+      <c r="D71" s="16" t="s">
         <v>122</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" ht="67.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="28"/>
+      <c r="A72" s="18"/>
       <c r="B72" s="2"/>
       <c r="C72" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D72" s="31" t="s">
+      <c r="D72" s="16" t="s">
         <v>122</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="28"/>
+      <c r="A73" s="18"/>
       <c r="B73" s="2"/>
       <c r="C73" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D73" s="31" t="s">
+      <c r="D73" s="16" t="s">
         <v>122</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" ht="54.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="27"/>
+      <c r="A74" s="19"/>
       <c r="B74" s="2"/>
       <c r="C74" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D74" s="31" t="s">
+      <c r="D74" s="16" t="s">
         <v>122</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" ht="67.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="17" t="s">
         <v>107</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D75" s="31" t="s">
+      <c r="D75" s="16" t="s">
         <v>124</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" ht="71.400000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="27"/>
+      <c r="A76" s="19"/>
       <c r="B76" s="2"/>
       <c r="C76" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D76" s="31" t="s">
+      <c r="D76" s="16" t="s">
         <v>124</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" ht="67.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="26" t="s">
+      <c r="A77" s="17" t="s">
         <v>108</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D77" s="31" t="s">
+      <c r="D77" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E77" s="10"/>
+      <c r="E77" s="34" t="s">
+        <v>125</v>
+      </c>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" ht="53.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="28"/>
+      <c r="A78" s="18"/>
       <c r="B78" s="2"/>
       <c r="C78" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D78" s="31" t="s">
+      <c r="D78" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E78" s="10"/>
+      <c r="E78" s="34" t="s">
+        <v>125</v>
+      </c>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="28"/>
+      <c r="A79" s="18"/>
       <c r="B79" s="2"/>
       <c r="C79" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D79" s="31" t="s">
+      <c r="D79" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E79" s="10"/>
+      <c r="E79" s="34" t="s">
+        <v>125</v>
+      </c>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" ht="66.599999999999994" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="28"/>
+      <c r="A80" s="18"/>
       <c r="B80" s="2"/>
       <c r="C80" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D80" s="31" t="s">
+      <c r="D80" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E80" s="10"/>
+      <c r="E80" s="34" t="s">
+        <v>125</v>
+      </c>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" ht="52.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="28"/>
+      <c r="A81" s="18"/>
       <c r="B81" s="2"/>
       <c r="C81" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D81" s="31" t="s">
+      <c r="D81" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E81" s="10"/>
+      <c r="E81" s="34" t="s">
+        <v>125</v>
+      </c>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="27"/>
+      <c r="A82" s="19"/>
       <c r="B82" s="2"/>
       <c r="C82" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D82" s="31" t="s">
+      <c r="D82" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E82" s="10"/>
+      <c r="E82" s="34" t="s">
+        <v>125</v>
+      </c>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="B15:B21"/>
+  <mergeCells count="27">
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="E9:E21"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="E30:E36"/>
     <mergeCell ref="B30:B36"/>
     <mergeCell ref="B37:B51"/>
     <mergeCell ref="A40:A51"/>
@@ -2155,9 +2268,34 @@
     <mergeCell ref="A23:A29"/>
     <mergeCell ref="A30:A37"/>
     <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A75:A76"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E77" r:id="rId1" tooltip="AdminController.cs" display="https://github.com/foodie-web/Foodie-web/blob/master/coding/Foodies/Controllers/AdminController.cs" xr:uid="{B869EA81-60C8-4777-9357-E0EC2BD7300C}"/>
+    <hyperlink ref="E78" r:id="rId2" tooltip="AdminController.cs" display="https://github.com/foodie-web/Foodie-web/blob/master/coding/Foodies/Controllers/AdminController.cs" xr:uid="{5C681261-2374-4C81-8326-8BD94D860855}"/>
+    <hyperlink ref="E79" r:id="rId3" tooltip="AdminController.cs" display="https://github.com/foodie-web/Foodie-web/blob/master/coding/Foodies/Controllers/AdminController.cs" xr:uid="{F10E1AE0-16AA-4488-B0E8-C3B851F52F51}"/>
+    <hyperlink ref="E81" r:id="rId4" tooltip="AdminController.cs" display="https://github.com/foodie-web/Foodie-web/blob/master/coding/Foodies/Controllers/AdminController.cs" xr:uid="{9BAEF6D6-9034-4255-A482-A68443B311E6}"/>
+    <hyperlink ref="E82" r:id="rId5" tooltip="AdminController.cs" display="https://github.com/foodie-web/Foodie-web/blob/master/coding/Foodies/Controllers/AdminController.cs" xr:uid="{01F14AC2-4855-4275-8288-2F93EEE826B3}"/>
+    <hyperlink ref="E80" r:id="rId6" tooltip="AdminController.cs" display="https://github.com/foodie-web/Foodie-web/blob/master/coding/Foodies/Controllers/AdminController.cs" xr:uid="{6E2E8B64-41A5-4AEE-A0AE-01ED78B31A9D}"/>
+    <hyperlink ref="E22" r:id="rId7" tooltip="CustomerController.cs" display="https://github.com/foodie-web/Foodie-web/blob/master/coding/Foodies/Controllers/CustomerController.cs" xr:uid="{EE9A1954-65A7-441F-843D-DEBF2A8F17A7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>